--- a/documents/timeline/Planning-and-Estimation.xlsx
+++ b/documents/timeline/Planning-and-Estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE18FCA8-D936-D04B-8E79-372885DDC003}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74601040-27DA-1B47-B4B6-AAC34C8531FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
   </bookViews>
@@ -1243,10 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC362AC4-AD3C-47C0-B9B9-5A330255D56D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>131</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>131</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>131</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>131</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>131</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>131</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>131</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>131</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>131</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>131</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>131</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>131</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>131</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>131</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>131</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>131</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>131</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>131</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>131</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>131</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>131</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>131</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>131</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>131</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>131</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>131</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>131</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>131</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>131</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>131</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>131</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>131</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>131</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>131</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>131</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>131</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>131</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>131</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>131</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>131</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>131</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>131</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>131</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>131</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>131</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>131</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>131</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>131</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>131</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>131</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>131</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>131</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>131</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>131</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>131</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>131</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>131</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>131</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>131</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>131</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>131</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>131</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>131</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>131</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>131</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>131</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>131</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>131</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>131</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>131</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>157</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>157</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>157</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>158</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>158</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>158</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>158</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>158</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>158</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>158</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>158</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>158</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>158</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>158</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>158</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>158</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>158</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>158</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>158</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>158</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>158</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>8</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>8</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>262</v>
       </c>
@@ -4929,7 +4930,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H205" xr:uid="{5CDC9820-C9C6-FA48-9500-4C7CE452EFF0}"/>
+  <autoFilter ref="A1:H205" xr:uid="{5CDC9820-C9C6-FA48-9500-4C7CE452EFF0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Front-end"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/documents/timeline/Planning-and-Estimation.xlsx
+++ b/documents/timeline/Planning-and-Estimation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74601040-27DA-1B47-B4B6-AAC34C8531FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A006A5-9C75-5743-98BA-0D902B5C1701}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" activeTab="1" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dates" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estimate!$A$1:$H$205</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="285">
   <si>
     <t>Section</t>
   </si>
@@ -827,6 +827,69 @@
   </si>
   <si>
     <t>Testing and Bug Reporting</t>
+  </si>
+  <si>
+    <t>13th May 2019</t>
+  </si>
+  <si>
+    <t>Estimated Completion Date</t>
+  </si>
+  <si>
+    <t>Estimated Start Date</t>
+  </si>
+  <si>
+    <t>Actual Start Date</t>
+  </si>
+  <si>
+    <t>Actual Completion Date</t>
+  </si>
+  <si>
+    <t>22nd May 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API (Back-End) </t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>API and Userface Integration</t>
+  </si>
+  <si>
+    <t>Estimated Man Days</t>
+  </si>
+  <si>
+    <t>Actual Man Days</t>
+  </si>
+  <si>
+    <t>24th May 2019</t>
+  </si>
+  <si>
+    <t>31st May 2019</t>
+  </si>
+  <si>
+    <t>HHT Interface</t>
+  </si>
+  <si>
+    <t>27th May 2019</t>
+  </si>
+  <si>
+    <t>7th June 2019</t>
+  </si>
+  <si>
+    <t>Internal Testing and Bug Fixing</t>
+  </si>
+  <si>
+    <t>14th June 2019</t>
+  </si>
+  <si>
+    <t>Major Tasks</t>
+  </si>
+  <si>
+    <t>3rd June 2019</t>
+  </si>
+  <si>
+    <t>Deployment to Client</t>
   </si>
 </sst>
 </file>
@@ -944,6 +1007,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{821BEF97-3A2C-2E46-8344-EB36F4BAD5B7}" name="Table1" displayName="Table1" ref="B2:H7" totalsRowShown="0">
+  <autoFilter ref="B2:H7" xr:uid="{C85A1020-6AA6-D247-8B43-3392A3EFAF14}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AD5D0546-7711-0E4B-B662-2D0C11F84A0A}" name="Major Tasks"/>
+    <tableColumn id="2" xr3:uid="{CB0D3DC0-414D-FC4E-931F-5D5612702E5C}" name="Estimated Start Date"/>
+    <tableColumn id="3" xr3:uid="{40B0B746-39A6-3047-9145-1DBC75C16556}" name="Actual Start Date"/>
+    <tableColumn id="4" xr3:uid="{B72A7803-6ADB-FA45-8C18-51298C9CFC7D}" name="Estimated Completion Date"/>
+    <tableColumn id="5" xr3:uid="{06A5FB92-8C0C-6C41-9533-EDA8DD585D92}" name="Actual Completion Date"/>
+    <tableColumn id="6" xr3:uid="{D2908D59-1118-A54E-BF64-91E1461A3AD0}" name="Estimated Man Days"/>
+    <tableColumn id="7" xr3:uid="{89EB582C-D131-1C4B-B2FE-2A9D29255705}" name="Actual Man Days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1246,8 +1325,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2582,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E86" si="2">D72/8</f>
+        <f t="shared" ref="E72:E94" si="2">D72/8</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2848,6 +2927,13 @@
       <c r="C87" t="s">
         <v>15</v>
       </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -2859,6 +2945,13 @@
       <c r="C88" t="s">
         <v>109</v>
       </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -2870,6 +2963,13 @@
       <c r="C89" t="s">
         <v>111</v>
       </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -2881,6 +2981,13 @@
       <c r="C90" t="s">
         <v>113</v>
       </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -2892,6 +2999,13 @@
       <c r="C91" t="s">
         <v>115</v>
       </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -2903,6 +3017,13 @@
       <c r="C92" t="s">
         <v>116</v>
       </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -2914,6 +3035,13 @@
       <c r="C93" t="s">
         <v>118</v>
       </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -2925,6 +3053,13 @@
       <c r="C94" t="s">
         <v>119</v>
       </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -4926,7 +5061,7 @@
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D208">
         <f>SUM(D2:D207)</f>
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4943,12 +5078,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF36F63-AF2D-AF4F-A1FB-2213F544E376}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/documents/timeline/Planning-and-Estimation.xlsx
+++ b/documents/timeline/Planning-and-Estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A006A5-9C75-5743-98BA-0D902B5C1701}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D84BD-9E13-1F45-BBBC-083A35DDC552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" activeTab="1" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
   </bookViews>
@@ -5081,7 +5081,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/documents/timeline/Planning-and-Estimation.xlsx
+++ b/documents/timeline/Planning-and-Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D84BD-9E13-1F45-BBBC-083A35DDC552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DFE88-D617-2848-8125-289368F6D6F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" activeTab="1" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>Estimation (In days)</t>
   </si>
   <si>
-    <t>Estimation (In days in fraction)</t>
-  </si>
-  <si>
-    <t>Estimation (In Dates)</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -890,6 +884,12 @@
   </si>
   <si>
     <t>Deployment to Client</t>
+  </si>
+  <si>
+    <t>Estimation (In days in actual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Date </t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1325,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,24 +1358,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>8</v>
@@ -1387,21 +1387,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
@@ -1414,15 +1414,15 @@
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -1435,15 +1435,15 @@
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
@@ -1456,15 +1456,15 @@
       <c r="G5" s="9"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -1477,15 +1477,15 @@
       <c r="G6" s="9"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1495,15 +1495,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1513,15 +1513,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1531,51 +1531,51 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1585,69 +1585,69 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1657,69 +1657,69 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>30</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1729,15 +1729,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1747,15 +1747,15 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1765,15 +1765,15 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1783,33 +1783,33 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1819,16 +1819,16 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -1837,15 +1837,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1855,15 +1855,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1873,33 +1873,33 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1909,16 +1909,16 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -1927,15 +1927,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1945,15 +1945,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1963,33 +1963,33 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
         <v>46</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1999,15 +1999,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
         <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2017,15 +2017,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2035,15 +2035,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2053,33 +2053,33 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
         <v>51</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2089,87 +2089,87 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
         <v>54</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>56</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -2179,15 +2179,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>59</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2197,15 +2197,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2215,15 +2215,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2233,15 +2233,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2251,15 +2251,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -2269,15 +2269,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
         <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2287,15 +2287,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2305,15 +2305,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2323,33 +2323,33 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
         <v>66</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2359,87 +2359,87 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
         <v>67</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
         <v>69</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
         <v>70</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>71</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>73</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -2449,15 +2449,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
         <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -2467,15 +2467,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -2485,33 +2485,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
         <v>76</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2521,15 +2521,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
         <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>79</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -2539,15 +2539,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2557,33 +2557,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
         <v>81</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" t="s">
-        <v>83</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -2593,15 +2593,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
         <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -2611,15 +2611,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -2629,15 +2629,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -2647,15 +2647,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -2665,15 +2665,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -2683,15 +2683,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
         <v>88</v>
-      </c>
-      <c r="C74" t="s">
-        <v>90</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2701,15 +2701,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2719,15 +2719,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2737,15 +2737,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
         <v>92</v>
-      </c>
-      <c r="C77" t="s">
-        <v>94</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2755,15 +2755,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2773,15 +2773,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2791,15 +2791,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2809,15 +2809,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -2827,15 +2827,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
         <v>97</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2845,15 +2845,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2863,15 +2863,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
         <v>100</v>
-      </c>
-      <c r="C84" t="s">
-        <v>102</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2881,15 +2881,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2899,15 +2899,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
         <v>103</v>
-      </c>
-      <c r="C86" t="s">
-        <v>105</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
         <v>106</v>
       </c>
-      <c r="B88" t="s">
-        <v>108</v>
-      </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2955,13 +2955,13 @@
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
         <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
         <v>117</v>
-      </c>
-      <c r="C94" t="s">
-        <v>119</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3061,15 +3061,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3079,1149 +3079,1149 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" t="s">
         <v>131</v>
       </c>
-      <c r="B96" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
         <v>160</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
         <v>161</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" t="s">
         <v>130</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C105" t="s">
         <v>133</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
         <v>134</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="C106" t="s">
         <v>162</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" t="s">
         <v>163</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
         <v>135</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
         <v>136</v>
       </c>
-      <c r="C106" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
         <v>136</v>
       </c>
-      <c r="C107" t="s">
-        <v>165</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C117" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
         <v>136</v>
       </c>
-      <c r="C108" t="s">
-        <v>166</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
         <v>136</v>
       </c>
-      <c r="C109" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C119" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
         <v>136</v>
       </c>
-      <c r="C110" t="s">
-        <v>168</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
         <v>137</v>
       </c>
-      <c r="C111" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="C121" t="s">
+        <v>177</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
         <v>137</v>
       </c>
-      <c r="C112" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
         <v>137</v>
       </c>
-      <c r="C113" t="s">
-        <v>171</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
         <v>137</v>
       </c>
-      <c r="C114" t="s">
-        <v>172</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
         <v>137</v>
       </c>
-      <c r="C115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
         <v>138</v>
       </c>
-      <c r="C116" t="s">
-        <v>174</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
         <v>138</v>
       </c>
-      <c r="C117" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
         <v>138</v>
       </c>
-      <c r="C118" t="s">
-        <v>176</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C119" t="s">
-        <v>177</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
         <v>138</v>
       </c>
-      <c r="C120" t="s">
-        <v>178</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
         <v>139</v>
       </c>
-      <c r="C121" t="s">
-        <v>179</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C131" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
         <v>139</v>
       </c>
-      <c r="C122" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="C132" t="s">
+        <v>188</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
         <v>139</v>
       </c>
-      <c r="C123" t="s">
-        <v>181</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="C133" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134" t="s">
         <v>139</v>
       </c>
-      <c r="C124" t="s">
-        <v>182</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" t="s">
         <v>139</v>
       </c>
-      <c r="C125" t="s">
-        <v>183</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="C135" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
         <v>140</v>
       </c>
-      <c r="C126" t="s">
-        <v>184</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="C136" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" t="s">
         <v>140</v>
       </c>
-      <c r="C127" t="s">
-        <v>185</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="C137" t="s">
+        <v>192</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" t="s">
         <v>140</v>
       </c>
-      <c r="C128" t="s">
-        <v>186</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C138" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" t="s">
         <v>140</v>
       </c>
-      <c r="C129" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C139" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C140" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C131" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C141" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>190</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C142" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
         <v>141</v>
       </c>
-      <c r="C133" t="s">
-        <v>191</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C143" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-      <c r="C134" t="s">
-        <v>192</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C144" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
         <v>141</v>
       </c>
-      <c r="C135" t="s">
-        <v>188</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C145" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
         <v>142</v>
       </c>
-      <c r="C136" t="s">
-        <v>193</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C146" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" t="s">
         <v>142</v>
       </c>
-      <c r="C137" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C147" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
         <v>142</v>
       </c>
-      <c r="C138" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C148" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="C139" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C149" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" t="s">
         <v>142</v>
       </c>
-      <c r="C140" t="s">
-        <v>197</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C150" t="s">
+        <v>205</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" t="s">
         <v>143</v>
       </c>
-      <c r="C141" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="C151" t="s">
+        <v>206</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" t="s">
         <v>143</v>
       </c>
-      <c r="C142" t="s">
-        <v>199</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C152" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" t="s">
         <v>143</v>
       </c>
-      <c r="C143" t="s">
-        <v>200</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C153" t="s">
+        <v>208</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
-        <v>201</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C154" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" t="s">
         <v>143</v>
       </c>
-      <c r="C145" t="s">
-        <v>202</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" t="s">
         <v>144</v>
       </c>
-      <c r="C146" t="s">
-        <v>203</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C156" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" t="s">
         <v>144</v>
       </c>
-      <c r="C147" t="s">
-        <v>204</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C157" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" t="s">
         <v>144</v>
       </c>
-      <c r="C148" t="s">
-        <v>205</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C158" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" t="s">
         <v>144</v>
       </c>
-      <c r="C149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" t="s">
-        <v>207</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B151" t="s">
-        <v>145</v>
-      </c>
-      <c r="C151" t="s">
-        <v>208</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B152" t="s">
-        <v>145</v>
-      </c>
-      <c r="C152" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B153" t="s">
-        <v>145</v>
-      </c>
-      <c r="C153" t="s">
-        <v>210</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B154" t="s">
-        <v>145</v>
-      </c>
-      <c r="C154" t="s">
-        <v>211</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" t="s">
-        <v>145</v>
-      </c>
-      <c r="C155" t="s">
-        <v>212</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B156" t="s">
-        <v>146</v>
-      </c>
-      <c r="C156" t="s">
-        <v>213</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B157" t="s">
-        <v>146</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>214</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B158" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" t="s">
-        <v>215</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" t="s">
-        <v>216</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4231,15 +4231,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -4249,15 +4249,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4267,15 +4267,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4285,15 +4285,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -4303,15 +4303,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -4321,15 +4321,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C165" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -4339,15 +4339,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -4357,15 +4357,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -4375,15 +4375,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B168" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4393,15 +4393,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C169" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4411,15 +4411,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4429,15 +4429,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -4447,15 +4447,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4465,15 +4465,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4483,15 +4483,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B174" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -4501,15 +4501,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4519,15 +4519,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B176" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4537,15 +4537,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4555,15 +4555,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B178" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4573,15 +4573,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4591,15 +4591,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4611,13 +4611,13 @@
     </row>
     <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C181" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D181">
         <v>4</v>
@@ -4629,13 +4629,13 @@
     </row>
     <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C182" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4719,13 +4719,13 @@
     </row>
     <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4737,13 +4737,13 @@
     </row>
     <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4755,13 +4755,13 @@
     </row>
     <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4773,13 +4773,13 @@
     </row>
     <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B190" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4809,13 +4809,13 @@
     </row>
     <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D192">
         <v>4</v>
@@ -4827,13 +4827,13 @@
     </row>
     <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B193" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B194" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B195" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D195">
         <v>4</v>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B196" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B197" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D197">
         <v>4</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B198" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4935,13 +4935,13 @@
     </row>
     <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B199" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -4953,13 +4953,13 @@
     </row>
     <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B200" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B201" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D202" s="3">
         <v>1</v>
@@ -5007,13 +5007,13 @@
     </row>
     <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D203" s="3">
         <v>4</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D204" s="3">
         <v>4</v>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D205" s="11">
         <v>40</v>
@@ -5068,7 +5068,7 @@
   <autoFilter ref="A1:H205" xr:uid="{5CDC9820-C9C6-FA48-9500-4C7CE452EFF0}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Front-end"/>
+        <filter val="Back-End"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5080,7 +5080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF36F63-AF2D-AF4F-A1FB-2213F544E376}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5097,36 +5097,36 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
         <v>266</v>
       </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" t="s">
-        <v>268</v>
-      </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5162,13 +5162,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -5176,13 +5176,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeline/Planning-and-Estimation.xlsx
+++ b/documents/timeline/Planning-and-Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DFE88-D617-2848-8125-289368F6D6F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F95712-8D30-E240-9DF8-15275C319784}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16220" activeTab="1" xr2:uid="{0804C6BB-2410-4DC2-BEF2-10EB2FDDC3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
@@ -1322,11 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC362AC4-AD3C-47C0-B9B9-5A330255D56D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1413,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1434,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1455,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1476,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>11</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>11</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>155</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>155</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>155</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>156</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>156</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>156</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>156</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>156</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>156</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>156</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>156</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>156</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>156</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>156</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>156</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>156</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>156</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>156</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>156</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>156</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>6</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>260</v>
       </c>
@@ -5065,14 +5064,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H205" xr:uid="{5CDC9820-C9C6-FA48-9500-4C7CE452EFF0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Back-End"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H205" xr:uid="{5CDC9820-C9C6-FA48-9500-4C7CE452EFF0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5080,8 +5074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF36F63-AF2D-AF4F-A1FB-2213F544E376}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5198,6 +5192,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
